--- a/students.xlsx
+++ b/students.xlsx
@@ -20,30 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passout Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Roll Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phone Number</t>
   </si>
   <si>
+    <t xml:space="preserve">WhatsApp Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home State</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ansh Mehrotra</t>
   </si>
   <si>
+    <t xml:space="preserve">CS78</t>
+  </si>
+  <si>
     <t xml:space="preserve">imehrotraansh02@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS78</t>
   </si>
   <si>
     <t xml:space="preserve">aaa</t>
@@ -65,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +123,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -145,13 +183,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,83 +396,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>211339</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>8299545361</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>211360</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1234567890</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>211307</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>8840563865</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -73,25 +73,52 @@
     <t xml:space="preserve">Home State</t>
   </si>
   <si>
-    <t xml:space="preserve">Ansh Mehrotra</t>
+    <t xml:space="preserve">Ansh zehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imehrotraansh02@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8299545361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9855+39695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2636256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5263626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">852852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neeraj Mehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bczs</t>
   </si>
   <si>
     <t xml:space="preserve">CS78</t>
   </si>
   <si>
     <t xml:space="preserve">CSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imehrotraansh02@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9855+39695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bczs</t>
   </si>
   <si>
     <t xml:space="preserve">211360@juitsolan.in</t>
@@ -114,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +170,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,15 +226,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,174 +432,165 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>211339</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>2025</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>37804</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>8299545361</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>526352</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>2636256</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>5263626</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>52322</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>852852</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>2365358</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>211360</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1234567890</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>211307</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>8840563865</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,173 +436,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ENROLLMENTNO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>STUDENTNAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Roll Number</t>
+          <t>FATHERNAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Program Name</t>
+          <t>PROGRAM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>BRANCH</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Passout Year</t>
+          <t>PASSOUT YEAR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DOB</t>
+          <t>BIRTH DATE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>EMAIL ID1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>EMAIL ID2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WhatsApp Number</t>
+          <t>CONTACT NO.</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Current Designation</t>
+          <t>WHATSAPP NO.</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Current Company</t>
+          <t>HOME STATE</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Current City</t>
+          <t>LINKEDIN PAGE</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Current Country</t>
+          <t>LAST UPDATE DATE</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>CURRENT DESIGNATION</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Father Name</t>
+          <t>COMPANY</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Home State</t>
+          <t>CITY</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>AED_Program Name</t>
+          <t>COUNTRY</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>AED_Branch</t>
+          <t>DEGREE NAME</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>AED_Institute Name</t>
+          <t>BRANCH/SPECIALIZATION</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>AED_City</t>
+          <t>INSTITUTE NAME</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>AED_State</t>
+          <t>CITY.1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>AED_Join Year</t>
+          <t>COUNTRY.1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>AED_Passout Year</t>
+          <t xml:space="preserve">JOINING YEAR </t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>HD_Branch</t>
+          <t>COMPLETION YEAR</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>HD_Institute Name</t>
+          <t>HIGHEST DEGREE NAME</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>HD_City</t>
+          <t>HD BRANCH/SPECIALIZATION</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>HD_State</t>
+          <t>HD INSTITUTE NAME</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>HD_Join Year</t>
+          <t>HD CITY</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>HD_Passout Year</t>
+          <t>HD COUNTRY</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HD JOINING YEAR </t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>HD COMPLETION YEAR</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>INSTITUTE CITY</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>INSTITUTE COUNTRY</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>JOINING YEAR</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>HD JOINING YEAR</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ansh Mehrotra</t>
+          <t>2113359</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS28</t>
+          <t>anshmehrotra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>211339</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>neeraj mehrotra</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>btech</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cse</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>2025</t>
@@ -610,7 +648,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Wed, 02 Jul 2003 00:00:00 GMT</t>
+          <t>02-07-03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -618,46 +656,34 @@
           <t>imehrotraansh02@gmail.com</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>8299545361</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9855+39695</t>
+          <t>1411414444</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>526352</t>
+          <t>14141414411</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2636256</t>
+          <t>lko</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5263626</t>
+          <t>gagagag</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>52322</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>852852</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Neeraj Mehrotra</t>
-        </is>
-      </c>
+          <t>afFFAFA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -672,52 +698,74 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bczs</t>
-        </is>
+      <c r="A3" t="n">
+        <v>211340</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS78</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>211360</v>
+          <t>afaafaf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>affafafagagdsdd</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>dsffs</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fsfs</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2025</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>afafafaf</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>211360@juitsolan.in</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>ahashgggh@gmail.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>13113131</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47471131313</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>dfhsh</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>aaff</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>afaafa</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -732,66 +780,12 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>zqq</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS77</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>211307</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>mehrotra.rishank16@gmail.com</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>8840563865</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2113259</t>
+          <t>211339</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>btech</t>
+          <t>bth</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -656,7 +656,11 @@
           <t>imehrotraansh02@gmail.com</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>1411414444</t>
@@ -682,28 +686,100 @@
           <t>afFFAFA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>anshmehrotra</t>
+          <t>Ansh Mehrotra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bth</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/students.xlsx
+++ b/students.xlsx
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>211339</t>
+          <t xml:space="preserve">211339 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/students.xlsx
+++ b/students.xlsx
@@ -618,12 +618,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211339 </t>
+          <t>211339</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ansh</t>
+          <t>Ansh Mehrotra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>lko</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>afFFAFA</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
